--- a/Excel/PhysicWorldsConfig.xlsx
+++ b/Excel/PhysicWorldsConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F57B2-1124-4D18-A792-A6DA8AF5D833}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D245A-13AE-44C4-B2AA-7E4C074FCDAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1020" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="2655" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,26 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TerrainDataPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形数据文件路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形配置文件路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TerrainConfigPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StaticObjs_Box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,7 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../Config/PhysicWorlds/Map/staticObjs_boxs.config</t>
+    <t>../Config/PhysicWorlds/Map/World.bytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -494,66 +474,46 @@
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="44.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="50.75" style="3" customWidth="1"/>
-    <col min="7" max="15" width="9" style="3"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="50.75" style="3" customWidth="1"/>
+    <col min="5" max="13" width="9" style="3"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
